--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,49 +40,49 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>illegal</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>fake</t>
   </si>
   <si>
     <t>negative</t>
@@ -94,25 +94,22 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>social</t>
@@ -487,7 +484,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -545,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -563,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>24</v>
@@ -595,13 +592,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -613,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
@@ -645,13 +642,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -663,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -687,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -695,13 +692,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -713,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6">
-        <v>0.82</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -737,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -745,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -763,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
@@ -795,13 +792,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8653846153846154</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -813,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K8">
-        <v>0.5666666666666667</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -837,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -845,13 +842,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -863,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -895,37 +892,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>13</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K10">
-        <v>0.4933333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -937,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -945,13 +942,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -969,13 +966,13 @@
         <v>32</v>
       </c>
       <c r="K11">
-        <v>0.4827586206896552</v>
+        <v>0.04189435336976321</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -987,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -995,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1013,31 +1010,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12">
-        <v>0.04462659380692167</v>
-      </c>
-      <c r="L12">
-        <v>49</v>
-      </c>
-      <c r="M12">
-        <v>49</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1049</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1045,13 +1018,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4782608695652174</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="C13">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1063,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1071,13 +1044,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3829787234042553</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1089,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1097,7 +1070,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3428571428571429</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -1115,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1123,7 +1096,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3214285714285715</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1141,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1149,13 +1122,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.282051282051282</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1167,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
